--- a/Processed_data/Nutrients_Site_level.xlsx
+++ b/Processed_data/Nutrients_Site_level.xlsx
@@ -782,7 +782,7 @@
         <v>5.63625</v>
       </c>
       <c r="D17">
-        <v>0.174</v>
+        <v>0.72775</v>
       </c>
       <c r="E17">
         <v>97.05</v>
@@ -982,7 +982,7 @@
         <v>4.195499999999999</v>
       </c>
       <c r="D25">
-        <v>0.326</v>
+        <v>3.29475</v>
       </c>
       <c r="E25">
         <v>74</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.7605042016806722</v>
+        <v>0.6868697478991596</v>
       </c>
       <c r="C26">
         <v>4.56825</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.6390056022408963</v>
+        <v>0.5653711484593837</v>
       </c>
       <c r="C27">
         <v>3.82925</v>
@@ -1059,6 +1059,9 @@
       <c r="D28">
         <v>0.19425</v>
       </c>
+      <c r="E28">
+        <v>76.55000000000001</v>
+      </c>
       <c r="F28">
         <v>5.9152125</v>
       </c>
@@ -1073,7 +1076,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>1.503501400560224</v>
+        <v>0.7767507002801122</v>
       </c>
       <c r="C29">
         <v>3.71475</v>
